--- a/Jogos_do_Dia/2024-01-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.78</v>
+        <v>2.24</v>
       </c>
       <c r="K4" t="n">
-        <v>3.61</v>
+        <v>3.29</v>
       </c>
       <c r="L4" t="n">
-        <v>4.41</v>
+        <v>3.14</v>
       </c>
       <c r="M4" t="n">
         <v>1.5</v>
@@ -996,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
@@ -1386,13 +1386,13 @@
         <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.03</v>
+        <v>2.39</v>
       </c>
       <c r="K7" t="n">
-        <v>3.47</v>
+        <v>3.24</v>
       </c>
       <c r="L7" t="n">
-        <v>3.54</v>
+        <v>2.93</v>
       </c>
       <c r="M7" t="n">
         <v>1.4</v>
@@ -1413,10 +1413,10 @@
         <v>3.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
         <v>1.75</v>
@@ -1525,13 +1525,13 @@
         <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="K8" t="n">
-        <v>6.69</v>
+        <v>5.75</v>
       </c>
       <c r="L8" t="n">
-        <v>12.14</v>
+        <v>11.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.3</v>
@@ -1552,10 +1552,10 @@
         <v>4.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="U8" t="n">
         <v>2.25</v>
@@ -1803,13 +1803,13 @@
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="L10" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
@@ -1830,10 +1830,10 @@
         <v>4.33</v>
       </c>
       <c r="S10" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="T10" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>

--- a/Jogos_do_Dia/2024-01-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -718,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -787,10 +787,10 @@
         <v>1.19</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
@@ -830,13 +830,13 @@
         <v>1.83</v>
       </c>
       <c r="J3" t="n">
-        <v>7.65</v>
+        <v>8.16</v>
       </c>
       <c r="K3" t="n">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.33</v>
@@ -857,10 +857,10 @@
         <v>3.6</v>
       </c>
       <c r="S3" t="n">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -926,10 +926,10 @@
         <v>1.2</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.29</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.5</v>
@@ -996,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
@@ -1108,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K5" t="n">
-        <v>7.85</v>
+        <v>7.7</v>
       </c>
       <c r="L5" t="n">
-        <v>15.47</v>
+        <v>16.06</v>
       </c>
       <c r="M5" t="n">
         <v>1.25</v>
@@ -1135,10 +1135,10 @@
         <v>5.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
       <c r="U5" t="n">
         <v>2.63</v>
@@ -1343,10 +1343,10 @@
         <v>1.24</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="7">
@@ -1386,13 +1386,13 @@
         <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="M7" t="n">
         <v>1.4</v>
@@ -1413,10 +1413,10 @@
         <v>3.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
         <v>1.75</v>
@@ -1528,10 +1528,10 @@
         <v>1.24</v>
       </c>
       <c r="K8" t="n">
-        <v>5.75</v>
+        <v>6.3</v>
       </c>
       <c r="L8" t="n">
-        <v>11.29</v>
+        <v>13</v>
       </c>
       <c r="M8" t="n">
         <v>1.3</v>
@@ -1552,10 +1552,10 @@
         <v>4.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
         <v>2.25</v>
@@ -1664,13 +1664,13 @@
         <v>9.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="K9" t="n">
-        <v>6.47</v>
+        <v>6.65</v>
       </c>
       <c r="L9" t="n">
-        <v>13.42</v>
+        <v>13.78</v>
       </c>
       <c r="M9" t="n">
         <v>1.3</v>
@@ -1691,10 +1691,10 @@
         <v>4.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="T9" t="n">
-        <v>2.3</v>
+        <v>2.11</v>
       </c>
       <c r="U9" t="n">
         <v>2.55</v>
@@ -1760,10 +1760,10 @@
         <v>1.23</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="10">
@@ -1803,13 +1803,13 @@
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="K10" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
@@ -1830,10 +1830,10 @@
         <v>4.33</v>
       </c>
       <c r="S10" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="T10" t="n">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>

--- a/Jogos_do_Dia/2024-01-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.24</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -718,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -739,10 +739,10 @@
         <v>1.33</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AB2" t="n">
         <v>1.2</v>
@@ -830,13 +830,13 @@
         <v>1.83</v>
       </c>
       <c r="J3" t="n">
-        <v>8.16</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.33</v>
@@ -860,7 +860,7 @@
         <v>1.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -878,10 +878,10 @@
         <v>1.07</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AB3" t="n">
         <v>1.21</v>
@@ -969,10 +969,10 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
         <v>3.3</v>
@@ -996,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
@@ -1111,10 +1111,10 @@
         <v>1.12</v>
       </c>
       <c r="K5" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>16.06</v>
+        <v>20</v>
       </c>
       <c r="M5" t="n">
         <v>1.25</v>
@@ -1138,7 +1138,7 @@
         <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
         <v>2.63</v>
@@ -1386,13 +1386,13 @@
         <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="M7" t="n">
         <v>1.4</v>
@@ -1413,10 +1413,10 @@
         <v>3.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
         <v>1.75</v>
@@ -1525,13 +1525,13 @@
         <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="K8" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" t="n">
         <v>1.3</v>
@@ -1552,10 +1552,10 @@
         <v>4.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U8" t="n">
         <v>2.25</v>
@@ -1667,10 +1667,10 @@
         <v>1.16</v>
       </c>
       <c r="K9" t="n">
-        <v>6.65</v>
+        <v>6.75</v>
       </c>
       <c r="L9" t="n">
-        <v>13.78</v>
+        <v>13</v>
       </c>
       <c r="M9" t="n">
         <v>1.3</v>
@@ -1694,7 +1694,7 @@
         <v>1.65</v>
       </c>
       <c r="T9" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="U9" t="n">
         <v>2.55</v>
@@ -1803,13 +1803,13 @@
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
@@ -1830,10 +1830,10 @@
         <v>4.33</v>
       </c>
       <c r="S10" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="T10" t="n">
-        <v>2.23</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>
